--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化一维单元尺寸定义（模板）.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化一维单元尺寸定义（模板）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="8" r:id="rId1"/>
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="161">
   <si>
     <t>关闭按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1261,6 +1261,10 @@
   </si>
   <si>
     <t>不拼接路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1724,10 +1728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1743,10 +1747,12 @@
     <col min="13" max="13" width="5.125" style="9" customWidth="1"/>
     <col min="14" max="14" width="10.875" style="8"/>
     <col min="15" max="15" width="7.625" style="9" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="2"/>
+    <col min="16" max="16" width="10.875" style="2"/>
+    <col min="17" max="17" width="13.5" style="8" customWidth="1"/>
+    <col min="18" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1795,11 +1801,14 @@
       <c r="P1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -1848,11 +1857,11 @@
       <c r="P2" s="7">
         <v>3</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1862,7 +1871,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1872,7 +1881,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1882,7 +1891,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1892,7 +1901,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:17" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1902,7 +1911,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1917,8 +1926,9 @@
       <c r="L8" s="3"/>
       <c r="M8" s="7"/>
       <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1933,31 +1943,37 @@
       <c r="L9" s="3"/>
       <c r="M9" s="7"/>
       <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="8"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="Q12" s="5"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J9 K1:K2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J9 K1:K2 Q3:Q1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N9 Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N9 R2">
       <formula1>"拼接路径,不拼接路径"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
@@ -2228,15 +2244,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="32" max="32" width="13.5" style="8" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="10" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>132</v>
       </c>
@@ -2330,11 +2349,14 @@
       <c r="AE1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="14" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:33" s="14" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>155</v>
       </c>
@@ -2428,17 +2450,48 @@
       <c r="AE2" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="5" t="s">
         <v>159</v>
       </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF3" s="5"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF4" s="5"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF5" s="5"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF6" s="5"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF7" s="5"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF8" s="5"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF9" s="5"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF10" s="5"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF11" s="5"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AF12" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2">
       <formula1>"拼接路径,不拼接路径"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1 Y2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1:Y2 AF3:AF1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z2">
@@ -2452,10 +2505,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2472,11 +2525,12 @@
     <col min="15" max="15" width="5.125" style="9" customWidth="1"/>
     <col min="16" max="16" width="7.625" style="9" customWidth="1"/>
     <col min="17" max="17" width="13.125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="10.875" style="8"/>
-    <col min="19" max="16384" width="10.875" style="2"/>
+    <col min="18" max="18" width="13.5" style="8" customWidth="1"/>
+    <col min="19" max="19" width="10.875" style="8"/>
+    <col min="20" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2528,11 +2582,14 @@
       <c r="Q1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -2584,11 +2641,11 @@
       <c r="Q2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -2637,11 +2694,11 @@
       <c r="Q3" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2693,11 +2750,11 @@
       <c r="Q4" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -2749,11 +2806,11 @@
       <c r="Q5" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2805,11 +2862,11 @@
       <c r="Q6" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2861,11 +2918,11 @@
       <c r="Q7" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="S7" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2909,11 +2966,12 @@
       <c r="Q8" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="5"/>
+      <c r="S8" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2965,17 +3023,27 @@
       <c r="Q9" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="5"/>
+      <c r="S9" s="5" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="R12" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K9 R3:R1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S9">
       <formula1>"拼接路径,不拼接路径"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
@@ -2989,10 +3057,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3009,11 +3077,12 @@
     <col min="15" max="15" width="5.125" style="9" customWidth="1"/>
     <col min="16" max="16" width="7.625" style="9" customWidth="1"/>
     <col min="17" max="17" width="13.125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="10.875" style="8"/>
-    <col min="19" max="16384" width="10.875" style="2"/>
+    <col min="18" max="18" width="13.5" style="8" customWidth="1"/>
+    <col min="19" max="19" width="10.875" style="8"/>
+    <col min="20" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3065,11 +3134,14 @@
       <c r="Q1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
@@ -3121,11 +3193,11 @@
       <c r="Q2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -3174,11 +3246,11 @@
       <c r="Q3" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -3230,11 +3302,11 @@
       <c r="Q4" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -3286,11 +3358,11 @@
       <c r="Q5" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -3342,11 +3414,11 @@
       <c r="Q6" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
@@ -3398,11 +3470,11 @@
       <c r="Q7" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="S7" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -3446,11 +3518,12 @@
       <c r="Q8" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="5"/>
+      <c r="S8" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
@@ -3502,11 +3575,12 @@
       <c r="Q9" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="5"/>
+      <c r="S9" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="8"/>
@@ -3515,9 +3589,10 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
-      <c r="R10" s="8"/>
-    </row>
-    <row r="11" spans="1:18" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R10" s="5"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="8"/>
@@ -3526,16 +3601,20 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="8"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="R12" s="5"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K9 R3:R1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S9">
       <formula1>"拼接路径,不拼接路径"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">

--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化一维单元尺寸定义（模板）.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化一维单元尺寸定义（模板）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="8" r:id="rId1"/>
@@ -2246,7 +2246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
@@ -3059,7 +3059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>

--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化一维单元尺寸定义（模板）.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化一维单元尺寸定义（模板）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="8" r:id="rId1"/>
@@ -198,9 +198,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-通用
-特殊一
-特殊二</t>
+窗口一
+窗口二
+窗口三</t>
         </r>
       </text>
     </comment>
@@ -391,7 +391,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +516,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -566,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -593,7 +593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -617,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="155">
   <si>
     <t>关闭按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -806,9 +806,6 @@
     <t>不拼接路径</t>
   </si>
   <si>
-    <t>拼接路径</t>
-  </si>
-  <si>
     <t>预期结果文本信息</t>
   </si>
   <si>
@@ -845,10 +842,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不拼接路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>默认</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -858,14 +851,6 @@
   </si>
   <si>
     <t>执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不拼接路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼接路径</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -887,15 +872,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一维单元尺寸定义已完成！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>尺寸信息-&gt;二维单元尺寸定义（模板）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>找不到一维园整文件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -916,10 +893,6 @@
     <t>1、选择路径文本框手动输入纯特殊字符；
 2、材料类型选择“金属材料”；
 3、选择路径文本框，点击对应的“浏览”按钮，并选择准确的一维单元园整后的文件。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>！@#￥%……&amp;*（）——+|}{【】、？》。、!@#$%^&amp;*()_+-=\][{}|/.&gt;?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1136,10 +1109,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>窗口一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1265,6 +1234,14 @@
   </si>
   <si>
     <t>预期值控件标识属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>！@#￥%……&amp;*（）——+|}{【】、？》。、!@#$%^&amp;*()_+-=\][{}|/.&gt;?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1382,7 +1359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1423,6 +1400,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1763,13 +1743,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>40</v>
@@ -1781,31 +1761,31 @@
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1819,10 +1799,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>13</v>
@@ -1834,7 +1814,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>22</v>
@@ -1843,16 +1823,16 @@
         <v>15</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="P2" s="7">
         <v>3</v>
@@ -1992,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2009,119 +1989,119 @@
     <row r="1" spans="1:7" s="10" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>124</v>
+      <c r="A5" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -2144,94 +2124,94 @@
     </row>
     <row r="7" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2246,7 +2226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
@@ -2257,120 +2237,120 @@
   <sheetData>
     <row r="1" spans="1:33" s="10" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="O1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="14" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>13</v>
@@ -2382,77 +2362,77 @@
         <v>13</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="X2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AD2" s="7">
         <v>3</v>
       </c>
       <c r="AE2" s="13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AF2" s="3"/>
       <c r="AG2" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.15">
@@ -2505,10 +2485,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2516,21 +2496,20 @@
     <col min="1" max="1" width="8.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="40" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="2" customWidth="1"/>
-    <col min="4" max="9" width="7.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="8" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="9"/>
-    <col min="14" max="14" width="12" style="9" customWidth="1"/>
-    <col min="15" max="15" width="5.125" style="9" customWidth="1"/>
-    <col min="16" max="16" width="7.625" style="9" customWidth="1"/>
-    <col min="17" max="17" width="13.125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="13.5" style="8" customWidth="1"/>
-    <col min="19" max="19" width="10.875" style="8"/>
-    <col min="20" max="16384" width="10.875" style="2"/>
+    <col min="4" max="4" width="19.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="9"/>
+    <col min="8" max="8" width="12" style="9" customWidth="1"/>
+    <col min="9" max="9" width="5.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="8" customWidth="1"/>
+    <col min="13" max="18" width="7.625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2541,55 +2520,52 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -2599,53 +2575,50 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="7">
+        <v>3</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R2" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -2653,52 +2626,49 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="7">
+        <v>3</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="7" t="s">
+      <c r="R3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="P3" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -2708,53 +2678,50 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>85</v>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="7">
+        <v>3</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -2764,53 +2731,50 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>85</v>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="7">
+        <v>3</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2820,53 +2784,50 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>85</v>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2876,53 +2837,50 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>85</v>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:18" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2932,46 +2890,43 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="7">
+        <v>3</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>96</v>
-      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -2981,72 +2936,66 @@
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>85</v>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="7">
+        <v>3</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="R12" s="5"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L12" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K9 R3:R1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E9 L3:L1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S9">
-      <formula1>"拼接路径,不拼接路径"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3057,10 +3006,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3068,21 +3017,20 @@
     <col min="1" max="1" width="8.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="40" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="2" customWidth="1"/>
-    <col min="4" max="9" width="7.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="8" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="9"/>
-    <col min="14" max="14" width="12" style="9" customWidth="1"/>
-    <col min="15" max="15" width="5.125" style="9" customWidth="1"/>
-    <col min="16" max="16" width="7.625" style="9" customWidth="1"/>
-    <col min="17" max="17" width="13.125" style="9" customWidth="1"/>
-    <col min="18" max="18" width="13.5" style="8" customWidth="1"/>
-    <col min="19" max="19" width="10.875" style="8"/>
-    <col min="20" max="16384" width="10.875" style="2"/>
+    <col min="4" max="4" width="19.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="9"/>
+    <col min="8" max="8" width="12" style="9" customWidth="1"/>
+    <col min="9" max="9" width="5.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="8" customWidth="1"/>
+    <col min="13" max="18" width="7.625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3093,531 +3041,499 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>86</v>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="7">
+        <v>3</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>86</v>
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P3" s="7">
+      <c r="H3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="7">
         <v>3</v>
       </c>
-      <c r="Q3" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K3" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>86</v>
+        <v>61</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="F4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="H4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="7">
         <v>3</v>
       </c>
-      <c r="Q4" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K4" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>86</v>
+        <v>61</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="H5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="7">
         <v>3</v>
       </c>
-      <c r="Q5" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>86</v>
+        <v>61</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="F6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P7" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>86</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="7">
+        <v>69</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="7">
         <v>3</v>
       </c>
-      <c r="Q8" s="13" t="s">
-        <v>96</v>
-      </c>
+      <c r="K8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6"/>
       <c r="R8" s="5"/>
-      <c r="S8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="7">
+        <v>3</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P9" s="7">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="8"/>
-    </row>
-    <row r="11" spans="1:19" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="8"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="R12" s="5"/>
+      <c r="O9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L12" s="5"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K9 R3:R1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E9 L3:L1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S9">
-      <formula1>"拼接路径,不拼接路径"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化一维单元尺寸定义（模板）.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/尺寸信息/自动化一维单元尺寸定义（模板）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="8" r:id="rId1"/>
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="156">
   <si>
     <t>关闭按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1242,6 +1242,10 @@
   </si>
   <si>
     <t>！@#￥%……&amp;*（）——+|}{【】、？》。、!@#$%^&amp;*()_+-=\][{}|/.&gt;?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一维单元尺寸定义已完成！！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1972,7 +1976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2226,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2407,7 +2411,7 @@
         <v>145</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>148</v>
@@ -2425,7 +2429,7 @@
         <v>74</v>
       </c>
       <c r="AD2" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AE2" s="13" t="s">
         <v>150</v>
